--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor\Desktop\fiverr_projects\shirt printer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98116956-A2C0-43AB-AFD7-C7002FF25739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4011762B-91F3-4B5B-A340-122C17BE00DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,6 @@
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="order_units" sheetId="2" r:id="rId2"/>
     <sheet name="Production_Costs" sheetId="4" r:id="rId3"/>
-    <sheet name="HF_order_cost_per_design" sheetId="6" r:id="rId4"/>
-    <sheet name="HF_unit_order_cost_per_design" sheetId="7" r:id="rId5"/>
-    <sheet name="MP_rush_fee" sheetId="11" r:id="rId6"/>
-    <sheet name="HF_SAMPLE_ORDERS" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">order_units!$A$1:$D$58</definedName>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="105">
   <si>
     <t>HAPPY FACTORY</t>
   </si>
@@ -334,22 +330,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>amount_of_hits</t>
-  </si>
-  <si>
     <t>QUOTE</t>
-  </si>
-  <si>
-    <t>sample_production_order_cost_per_design</t>
-  </si>
-  <si>
-    <t>sample_per_unit_order_cost_per_design</t>
-  </si>
-  <si>
-    <t>number_of_days</t>
-  </si>
-  <si>
-    <t>fee_precentage</t>
   </si>
   <si>
     <t>vendor</t>
@@ -477,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,28 +495,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,22 +785,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -837,22 +817,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -961,22 +941,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1085,22 +1065,22 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1218,9 +1198,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1265,10 +1245,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1276,11 +1256,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1414,11 +1394,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1711,10 +1691,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2459,16 +2439,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2489,16 +2469,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2607,16 +2587,16 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2725,16 +2705,16 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2843,14 +2823,14 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2927,18 +2907,18 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="16"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3259,10 +3239,10 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="17"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4135,16 +4115,16 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="16"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4165,16 +4145,16 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="17"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="16"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4283,16 +4263,16 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="16"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4401,16 +4381,16 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="17"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4519,14 +4499,14 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="18"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="17"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="16"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -4603,10 +4583,10 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="17"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4949,10 +4929,10 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="17"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -29544,6 +29524,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29556,22 +29552,6 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -29586,14 +29566,14 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>96</v>
@@ -30410,13 +30390,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30426,24 +30406,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -30452,12 +30432,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -30466,12 +30446,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -30480,12 +30460,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -30494,12 +30474,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -30508,12 +30488,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -30522,26 +30502,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -30550,12 +30530,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
@@ -30564,12 +30544,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -30578,12 +30558,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -30592,26 +30572,26 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
@@ -30620,12 +30600,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>72</v>
@@ -30634,12 +30614,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>75</v>
@@ -30648,12 +30628,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>78</v>
@@ -30662,12 +30642,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>28</v>
@@ -30676,12 +30656,12 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>30</v>
@@ -30690,12 +30670,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>33</v>
@@ -30704,12 +30684,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>
@@ -30718,12 +30698,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>89</v>
@@ -30732,12 +30712,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>69</v>
@@ -30746,12 +30726,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>72</v>
@@ -30760,40 +30740,40 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>28</v>
@@ -30802,26 +30782,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>90</v>
@@ -30835,7 +30815,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>41</v>
@@ -30849,7 +30829,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>42</v>
@@ -30863,7 +30843,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>43</v>
@@ -30877,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>44</v>
@@ -30891,7 +30871,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>45</v>
@@ -30905,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>46</v>
@@ -30919,7 +30899,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>47</v>
@@ -30933,7 +30913,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
@@ -30947,7 +30927,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>49</v>
@@ -30961,7 +30941,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -30975,7 +30955,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>51</v>
@@ -30989,13 +30969,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31003,7 +30983,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>54</v>
@@ -31017,13 +30997,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31031,13 +31011,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31045,13 +31025,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31059,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31073,13 +31053,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31087,7 +31067,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>41</v>
@@ -31101,7 +31081,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>42</v>
@@ -31115,7 +31095,7 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>44</v>
@@ -31129,7 +31109,7 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>45</v>
@@ -31143,7 +31123,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>79</v>
@@ -31157,7 +31137,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>47</v>
@@ -31171,7 +31151,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>48</v>
@@ -31185,13 +31165,13 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31199,13 +31179,13 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31213,13 +31193,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31227,13 +31207,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31241,13 +31221,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31255,13 +31235,13 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31269,13 +31249,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31283,7 +31263,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>80</v>
@@ -31297,7 +31277,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>81</v>
@@ -31311,7 +31291,7 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>82</v>
@@ -31325,7 +31305,7 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>83</v>
@@ -31339,7 +31319,7 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>84</v>
@@ -31353,7 +31333,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>85</v>
@@ -31367,7 +31347,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>86</v>
@@ -31381,7 +31361,7 @@
         <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>87</v>
@@ -31395,7 +31375,7 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>41</v>
@@ -31409,7 +31389,7 @@
         <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>42</v>
@@ -31423,7 +31403,7 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>44</v>
@@ -31437,7 +31417,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>45</v>
@@ -31451,7 +31431,7 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>91</v>
@@ -31465,13 +31445,13 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31479,13 +31459,13 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31493,13 +31473,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31507,13 +31487,13 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31521,13 +31501,13 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31535,13 +31515,13 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31549,13 +31529,13 @@
         <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31563,13 +31543,13 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31577,13 +31557,13 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31591,13 +31571,13 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31605,13 +31585,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31619,13 +31599,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31633,13 +31613,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31647,13 +31627,13 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31661,7 +31641,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>92</v>
@@ -31675,7 +31655,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>93</v>
@@ -31689,7 +31669,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>94</v>
@@ -31703,7 +31683,7 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>95</v>
@@ -31713,275 +31693,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="11">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="11">
-        <v>156</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>4</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>35</v>
-      </c>
-      <c r="B2" s="11">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>5000</v>
-      </c>
-      <c r="B3" s="11">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11">
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>35</v>
-      </c>
-      <c r="B4" s="11">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
-        <v>5000</v>
-      </c>
-      <c r="B5" s="11">
-        <v>8</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>35</v>
-      </c>
-      <c r="B6" s="11">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>5000</v>
-      </c>
-      <c r="B7" s="11">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:D92" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cost_Per_Unit_Per_Design"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tor\Desktop\fiverr_projects\shirt printer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4011762B-91F3-4B5B-A340-122C17BE00DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D5E47-0BE9-4847-8BDD-D4BF91489FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -496,26 +496,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -796,7 +796,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="15"/>
@@ -817,7 +817,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15"/>
@@ -828,7 +828,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="15"/>
@@ -941,7 +941,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="15"/>
@@ -952,7 +952,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="15"/>
@@ -1065,7 +1065,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15"/>
@@ -1076,7 +1076,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="15"/>
@@ -1198,7 +1198,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
       <c r="M12" s="2"/>
@@ -2469,7 +2469,7 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="15"/>
@@ -2587,7 +2587,7 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="15"/>
@@ -2705,7 +2705,7 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="15"/>
@@ -2823,7 +2823,7 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -4145,7 +4145,7 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="15"/>
@@ -4263,7 +4263,7 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B106" s="15"/>
@@ -4381,7 +4381,7 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B109" s="15"/>
@@ -4499,7 +4499,7 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="22"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -29524,22 +29524,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29552,6 +29536,22 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -30390,13 +30390,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30418,7 +30418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -30432,7 +30432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -30460,7 +30460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -30488,7 +30488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -30502,7 +30502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -30516,7 +30516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -30600,7 +30600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -30614,7 +30614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -30670,7 +30670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -30684,7 +30684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -30712,7 +30712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -30768,7 +30768,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -31693,13 +31693,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D92" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Cost_Per_Unit_Per_Design"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xande\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bddae377a8f4f29/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D3715CC-60EA-48C5-82D5-446A224FF2CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="105">
   <si>
     <t>HAPPY FACTORY</t>
   </si>
@@ -368,7 +368,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,15 +408,8 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +432,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -482,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,32 +518,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,6 +558,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,22 +814,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -844,22 +846,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -968,22 +970,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1092,22 +1094,22 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1225,9 +1227,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1272,10 +1274,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1283,11 +1285,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1421,11 +1423,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1718,10 +1720,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2466,16 +2468,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2496,16 +2498,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2614,16 +2616,16 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2732,16 +2734,16 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2850,14 +2852,14 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2934,18 +2936,18 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3266,10 +3268,10 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="16"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4142,16 +4144,16 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="17"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4172,16 +4174,16 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4290,16 +4292,16 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="17"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4408,16 +4410,16 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="17"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4526,14 +4528,14 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="16"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="17"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -4610,10 +4612,10 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="16"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4956,10 +4958,10 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="16"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -29551,22 +29553,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29579,6 +29565,22 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -29592,8 +29594,9 @@
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30129,11 +30132,11 @@
       <c r="B38" s="11">
         <v>71</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="14">
         <v>4</v>
       </c>
       <c r="D38" s="24">
-        <v>2.67</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30143,11 +30146,11 @@
       <c r="B39" s="11">
         <v>143</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="14">
         <v>4</v>
       </c>
       <c r="D39" s="24">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30157,11 +30160,11 @@
       <c r="B40" s="11">
         <v>215</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="14">
         <v>4</v>
       </c>
       <c r="D40" s="24">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30171,11 +30174,11 @@
       <c r="B41" s="11">
         <v>299</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="14">
         <v>4</v>
       </c>
       <c r="D41" s="24">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30185,11 +30188,11 @@
       <c r="B42" s="11">
         <v>499</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="14">
         <v>4</v>
       </c>
       <c r="D42" s="24">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30199,11 +30202,11 @@
       <c r="B43" s="11">
         <v>999</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="14">
         <v>4</v>
       </c>
       <c r="D43" s="24">
-        <v>1.29</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30213,11 +30216,11 @@
       <c r="B44" s="11">
         <v>5000</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="14">
         <v>4</v>
       </c>
       <c r="D44" s="24">
-        <v>1.1399999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30227,11 +30230,11 @@
       <c r="B45" s="11">
         <v>71</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="14">
         <v>8</v>
       </c>
       <c r="D45" s="24">
-        <v>2.85</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30241,11 +30244,11 @@
       <c r="B46" s="11">
         <v>143</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="14">
         <v>8</v>
       </c>
       <c r="D46" s="24">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30255,11 +30258,11 @@
       <c r="B47" s="11">
         <v>215</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="14">
         <v>8</v>
       </c>
       <c r="D47" s="24">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30269,11 +30272,11 @@
       <c r="B48" s="11">
         <v>299</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="14">
         <v>8</v>
       </c>
       <c r="D48" s="24">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30283,11 +30286,11 @@
       <c r="B49" s="11">
         <v>499</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="14">
         <v>8</v>
       </c>
       <c r="D49" s="24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30297,11 +30300,11 @@
       <c r="B50" s="11">
         <v>999</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="14">
         <v>8</v>
       </c>
       <c r="D50" s="24">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30311,11 +30314,11 @@
       <c r="B51" s="11">
         <v>5000</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="14">
         <v>8</v>
       </c>
       <c r="D51" s="24">
-        <v>1.27</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30325,11 +30328,11 @@
       <c r="B52" s="11">
         <v>71</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="14">
         <v>20</v>
       </c>
       <c r="D52" s="24">
-        <v>3.03</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30339,11 +30342,11 @@
       <c r="B53" s="11">
         <v>143</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="14">
         <v>20</v>
       </c>
       <c r="D53" s="24">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30353,11 +30356,11 @@
       <c r="B54" s="11">
         <v>215</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="14">
         <v>20</v>
       </c>
       <c r="D54" s="24">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30367,11 +30370,11 @@
       <c r="B55" s="11">
         <v>299</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="14">
         <v>20</v>
       </c>
       <c r="D55" s="24">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30381,11 +30384,11 @@
       <c r="B56" s="11">
         <v>499</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="14">
         <v>20</v>
       </c>
       <c r="D56" s="24">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30395,11 +30398,11 @@
       <c r="B57" s="11">
         <v>999</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="14">
         <v>20</v>
       </c>
       <c r="D57" s="24">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30409,7 +30412,7 @@
       <c r="B58" s="11">
         <v>5000</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="14">
         <v>20</v>
       </c>
       <c r="D58" s="24">
@@ -30429,7 +30432,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30464,7 +30467,7 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>13</v>
       </c>
     </row>
@@ -30478,7 +30481,7 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>11</v>
       </c>
     </row>
@@ -30492,7 +30495,7 @@
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <v>21</v>
       </c>
     </row>
@@ -30506,7 +30509,7 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>25</v>
       </c>
     </row>
@@ -30520,7 +30523,7 @@
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>18</v>
       </c>
     </row>
@@ -30534,7 +30537,7 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>25</v>
       </c>
     </row>
@@ -30548,7 +30551,7 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -30562,7 +30565,7 @@
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>48</v>
       </c>
     </row>
@@ -30576,7 +30579,7 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>100</v>
       </c>
     </row>
@@ -30590,7 +30593,7 @@
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>50</v>
       </c>
     </row>
@@ -30604,7 +30607,7 @@
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>110</v>
       </c>
     </row>
@@ -30632,7 +30635,7 @@
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>19</v>
       </c>
     </row>
@@ -30646,7 +30649,7 @@
       <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <v>28</v>
       </c>
     </row>
@@ -30660,7 +30663,7 @@
       <c r="C16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <v>55</v>
       </c>
     </row>
@@ -30674,7 +30677,7 @@
       <c r="C17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>44</v>
       </c>
     </row>
@@ -30688,7 +30691,7 @@
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>16.5</v>
       </c>
     </row>
@@ -30702,7 +30705,7 @@
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>44</v>
       </c>
     </row>
@@ -30716,7 +30719,7 @@
       <c r="C20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="13">
         <v>50</v>
       </c>
     </row>
@@ -30730,8 +30733,8 @@
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>99</v>
+      <c r="D21" s="24">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30744,8 +30747,8 @@
       <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>99</v>
+      <c r="D22" s="24">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30758,7 +30761,7 @@
       <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="24">
         <v>20</v>
       </c>
     </row>
@@ -30772,7 +30775,7 @@
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="24">
         <v>28</v>
       </c>
     </row>
@@ -30786,7 +30789,7 @@
       <c r="C25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="24">
         <v>58</v>
       </c>
     </row>
@@ -30800,7 +30803,7 @@
       <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="24">
         <v>45</v>
       </c>
     </row>
@@ -30814,8 +30817,8 @@
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>99</v>
+      <c r="D27" s="24">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30828,7 +30831,7 @@
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="24">
         <v>45</v>
       </c>
     </row>
@@ -30842,7 +30845,7 @@
       <c r="C29" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -30856,7 +30859,7 @@
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="13">
         <v>0.4</v>
       </c>
     </row>
@@ -30870,7 +30873,7 @@
       <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="13">
         <v>0.25</v>
       </c>
     </row>
@@ -30884,7 +30887,7 @@
       <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="13">
         <v>1.27</v>
       </c>
     </row>
@@ -30898,7 +30901,7 @@
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="13">
         <v>0.65</v>
       </c>
     </row>
@@ -30912,7 +30915,7 @@
       <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="13">
         <v>0.65</v>
       </c>
     </row>
@@ -30926,7 +30929,7 @@
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="13">
         <v>0.6</v>
       </c>
     </row>
@@ -30940,7 +30943,7 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="13">
         <v>0.72</v>
       </c>
     </row>
@@ -30954,7 +30957,7 @@
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="13">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -30968,7 +30971,7 @@
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="13">
         <v>0.15</v>
       </c>
     </row>
@@ -30982,7 +30985,7 @@
       <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="13">
         <v>0.05</v>
       </c>
     </row>
@@ -30996,7 +30999,7 @@
       <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="13">
         <v>25</v>
       </c>
     </row>
@@ -31010,7 +31013,7 @@
       <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31024,7 +31027,7 @@
       <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="13">
         <v>0.75</v>
       </c>
     </row>
@@ -31038,7 +31041,7 @@
       <c r="C43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31052,7 +31055,7 @@
       <c r="C44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31066,7 +31069,7 @@
       <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31080,7 +31083,7 @@
       <c r="C46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31094,7 +31097,7 @@
       <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31108,7 +31111,7 @@
       <c r="C48" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="13">
         <v>0.2</v>
       </c>
     </row>
@@ -31122,7 +31125,7 @@
       <c r="C49" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="13">
         <v>0.17</v>
       </c>
     </row>
@@ -31136,7 +31139,7 @@
       <c r="C50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="13">
         <v>0.72</v>
       </c>
     </row>
@@ -31150,7 +31153,7 @@
       <c r="C51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="13">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -31164,7 +31167,7 @@
       <c r="C52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="13">
         <v>0.72</v>
       </c>
     </row>
@@ -31178,7 +31181,7 @@
       <c r="C53" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="13">
         <v>0.61</v>
       </c>
     </row>
@@ -31192,7 +31195,7 @@
       <c r="C54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="13">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -31206,7 +31209,7 @@
       <c r="C55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31220,7 +31223,7 @@
       <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31234,7 +31237,7 @@
       <c r="C57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31248,7 +31251,7 @@
       <c r="C58" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31262,7 +31265,7 @@
       <c r="C59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31276,7 +31279,7 @@
       <c r="C60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31290,7 +31293,7 @@
       <c r="C61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31304,7 +31307,7 @@
       <c r="C62" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="13">
         <v>1.54</v>
       </c>
     </row>
@@ -31318,7 +31321,7 @@
       <c r="C63" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="13">
         <v>1.54</v>
       </c>
     </row>
@@ -31332,7 +31335,7 @@
       <c r="C64" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="13">
         <v>0.39</v>
       </c>
     </row>
@@ -31346,7 +31349,7 @@
       <c r="C65" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="13">
         <v>0.39</v>
       </c>
     </row>
@@ -31360,7 +31363,7 @@
       <c r="C66" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="13">
         <v>1.05</v>
       </c>
     </row>
@@ -31374,7 +31377,7 @@
       <c r="C67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="13">
         <v>1.49</v>
       </c>
     </row>
@@ -31388,7 +31391,7 @@
       <c r="C68" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="13">
         <v>1.85</v>
       </c>
     </row>
@@ -31402,7 +31405,7 @@
       <c r="C69" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="13">
         <v>0.2</v>
       </c>
     </row>
@@ -31416,8 +31419,8 @@
       <c r="C70" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>99</v>
+      <c r="D70" s="24">
+        <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31430,8 +31433,8 @@
       <c r="C71" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>99</v>
+      <c r="D71" s="24">
+        <v>0.17</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31444,7 +31447,7 @@
       <c r="C72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="24">
         <v>0.72</v>
       </c>
     </row>
@@ -31458,7 +31461,7 @@
       <c r="C73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="24">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -31472,8 +31475,8 @@
       <c r="C74" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>99</v>
+      <c r="D74" s="24">
+        <v>0.61</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31486,7 +31489,7 @@
       <c r="C75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="24">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -31500,8 +31503,8 @@
       <c r="C76" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>99</v>
+      <c r="D76" s="24">
+        <v>5.45</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31514,8 +31517,8 @@
       <c r="C77" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="25" t="s">
-        <v>99</v>
+      <c r="D77" s="24">
+        <v>3.6</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31528,8 +31531,8 @@
       <c r="C78" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="23">
-        <v>2.15</v>
+      <c r="D78" s="24">
+        <v>1.85</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31542,7 +31545,7 @@
       <c r="C79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31556,8 +31559,8 @@
       <c r="C80" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>99</v>
+      <c r="D80" s="24">
+        <v>0.4</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31570,7 +31573,7 @@
       <c r="C81" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="24">
         <v>1.54</v>
       </c>
     </row>
@@ -31584,7 +31587,7 @@
       <c r="C82" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="24">
         <v>1.54</v>
       </c>
     </row>
@@ -31598,7 +31601,7 @@
       <c r="C83" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="24">
         <v>0.4</v>
       </c>
     </row>
@@ -31612,7 +31615,7 @@
       <c r="C84" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="24">
         <v>0.39</v>
       </c>
     </row>
@@ -31626,8 +31629,8 @@
       <c r="C85" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>99</v>
+      <c r="D85" s="24">
+        <v>1.05</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31640,7 +31643,7 @@
       <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="24">
         <v>1.49</v>
       </c>
     </row>
@@ -31654,7 +31657,7 @@
       <c r="C87" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="24">
         <v>1.85</v>
       </c>
     </row>
@@ -31668,8 +31671,8 @@
       <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>99</v>
+      <c r="D88" s="24">
+        <v>0.2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31682,8 +31685,8 @@
       <c r="C89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>99</v>
+      <c r="D89" s="24">
+        <v>1.3</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31696,8 +31699,8 @@
       <c r="C90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>99</v>
+      <c r="D90" s="24">
+        <v>1.3</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31710,8 +31713,8 @@
       <c r="C91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>99</v>
+      <c r="D91" s="24">
+        <v>1.3</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31724,7 +31727,7 @@
       <c r="C92" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="24" t="s">
         <v>99</v>
       </c>
     </row>

--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bddae377a8f4f29/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D3715CC-60EA-48C5-82D5-446A224FF2CB}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F877C350-989F-43DE-8927-6F1FDD75CC03}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,30 +519,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,22 +815,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -846,22 +847,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -970,22 +971,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1094,22 +1095,22 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1227,9 +1228,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1274,10 +1275,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1285,11 +1286,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1423,11 +1424,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1720,10 +1721,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2468,16 +2469,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2498,16 +2499,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2616,16 +2617,16 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2734,16 +2735,16 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2852,14 +2853,14 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2936,18 +2937,18 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3268,10 +3269,10 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="17"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4144,16 +4145,16 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4174,16 +4175,16 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4292,16 +4293,16 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4410,16 +4411,16 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4528,14 +4529,14 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="17"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -4612,10 +4613,10 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="17"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4958,10 +4959,10 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="17"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -29553,6 +29554,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29565,22 +29582,6 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -29592,11 +29593,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30135,7 +30136,7 @@
       <c r="C38" s="14">
         <v>4</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="15">
         <v>2.06</v>
       </c>
     </row>
@@ -30149,8 +30150,8 @@
       <c r="C39" s="14">
         <v>4</v>
       </c>
-      <c r="D39" s="24">
-        <v>1.64</v>
+      <c r="D39" s="15">
+        <v>2.06</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30163,8 +30164,8 @@
       <c r="C40" s="14">
         <v>4</v>
       </c>
-      <c r="D40" s="24">
-        <v>1.58</v>
+      <c r="D40" s="15">
+        <v>1.64</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30177,8 +30178,8 @@
       <c r="C41" s="14">
         <v>4</v>
       </c>
-      <c r="D41" s="24">
-        <v>1.42</v>
+      <c r="D41" s="15">
+        <v>1.58</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30191,8 +30192,8 @@
       <c r="C42" s="14">
         <v>4</v>
       </c>
-      <c r="D42" s="24">
-        <v>1.29</v>
+      <c r="D42" s="15">
+        <v>1.42</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30205,8 +30206,8 @@
       <c r="C43" s="14">
         <v>4</v>
       </c>
-      <c r="D43" s="24">
-        <v>1.1399999999999999</v>
+      <c r="D43" s="15">
+        <v>1.29</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30219,8 +30220,8 @@
       <c r="C44" s="14">
         <v>4</v>
       </c>
-      <c r="D44" s="24">
-        <v>2.85</v>
+      <c r="D44" s="15">
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30233,8 +30234,8 @@
       <c r="C45" s="14">
         <v>8</v>
       </c>
-      <c r="D45" s="24">
-        <v>2.13</v>
+      <c r="D45" s="15">
+        <v>2.85</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30247,8 +30248,8 @@
       <c r="C46" s="14">
         <v>8</v>
       </c>
-      <c r="D46" s="24">
-        <v>1.74</v>
+      <c r="D46" s="15">
+        <v>2.13</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30261,8 +30262,8 @@
       <c r="C47" s="14">
         <v>8</v>
       </c>
-      <c r="D47" s="24">
-        <v>1.68</v>
+      <c r="D47" s="15">
+        <v>1.74</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30275,8 +30276,8 @@
       <c r="C48" s="14">
         <v>8</v>
       </c>
-      <c r="D48" s="24">
-        <v>1.5</v>
+      <c r="D48" s="15">
+        <v>1.68</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30289,8 +30290,8 @@
       <c r="C49" s="14">
         <v>8</v>
       </c>
-      <c r="D49" s="24">
-        <v>1.36</v>
+      <c r="D49" s="15">
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30303,8 +30304,8 @@
       <c r="C50" s="14">
         <v>8</v>
       </c>
-      <c r="D50" s="24">
-        <v>1.27</v>
+      <c r="D50" s="15">
+        <v>1.36</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30317,8 +30318,8 @@
       <c r="C51" s="14">
         <v>8</v>
       </c>
-      <c r="D51" s="24">
-        <v>3.03</v>
+      <c r="D51" s="15">
+        <v>1.27</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30331,8 +30332,8 @@
       <c r="C52" s="14">
         <v>20</v>
       </c>
-      <c r="D52" s="24">
-        <v>2.23</v>
+      <c r="D52" s="15">
+        <v>3.03</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30345,8 +30346,8 @@
       <c r="C53" s="14">
         <v>20</v>
       </c>
-      <c r="D53" s="24">
-        <v>2.12</v>
+      <c r="D53" s="15">
+        <v>2.23</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30359,8 +30360,8 @@
       <c r="C54" s="14">
         <v>20</v>
       </c>
-      <c r="D54" s="24">
-        <v>2.04</v>
+      <c r="D54" s="15">
+        <v>2.12</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30373,8 +30374,8 @@
       <c r="C55" s="14">
         <v>20</v>
       </c>
-      <c r="D55" s="24">
-        <v>1.82</v>
+      <c r="D55" s="15">
+        <v>2.04</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30387,8 +30388,8 @@
       <c r="C56" s="14">
         <v>20</v>
       </c>
-      <c r="D56" s="24">
-        <v>1.38</v>
+      <c r="D56" s="15">
+        <v>1.82</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30401,8 +30402,8 @@
       <c r="C57" s="14">
         <v>20</v>
       </c>
-      <c r="D57" s="24">
-        <v>1.32</v>
+      <c r="D57" s="15">
+        <v>1.38</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30415,9 +30416,12 @@
       <c r="C58" s="14">
         <v>20</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="15">
         <v>1.32</v>
       </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30431,8 +30435,8 @@
   </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30733,7 +30737,7 @@
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="15">
         <v>30</v>
       </c>
     </row>
@@ -30747,7 +30751,7 @@
       <c r="C22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="15">
         <v>28</v>
       </c>
     </row>
@@ -30761,7 +30765,7 @@
       <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="15">
         <v>20</v>
       </c>
     </row>
@@ -30775,7 +30779,7 @@
       <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="15">
         <v>28</v>
       </c>
     </row>
@@ -30789,7 +30793,7 @@
       <c r="C25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="15">
         <v>58</v>
       </c>
     </row>
@@ -30803,7 +30807,7 @@
       <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="15">
         <v>45</v>
       </c>
     </row>
@@ -30817,7 +30821,7 @@
       <c r="C27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="15">
         <v>17</v>
       </c>
     </row>
@@ -30831,7 +30835,7 @@
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="15">
         <v>45</v>
       </c>
     </row>
@@ -30845,7 +30849,7 @@
       <c r="C29" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31419,7 +31423,7 @@
       <c r="C70" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="15">
         <v>0.2</v>
       </c>
     </row>
@@ -31433,7 +31437,7 @@
       <c r="C71" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="15">
         <v>0.17</v>
       </c>
     </row>
@@ -31447,7 +31451,7 @@
       <c r="C72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="15">
         <v>0.72</v>
       </c>
     </row>
@@ -31461,7 +31465,7 @@
       <c r="C73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="15">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -31475,7 +31479,7 @@
       <c r="C74" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="15">
         <v>0.61</v>
       </c>
     </row>
@@ -31489,7 +31493,7 @@
       <c r="C75" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="15">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -31503,7 +31507,7 @@
       <c r="C76" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="15">
         <v>5.45</v>
       </c>
     </row>
@@ -31517,7 +31521,7 @@
       <c r="C77" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="15">
         <v>3.6</v>
       </c>
     </row>
@@ -31531,7 +31535,7 @@
       <c r="C78" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="15">
         <v>1.85</v>
       </c>
     </row>
@@ -31545,7 +31549,7 @@
       <c r="C79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31559,7 +31563,7 @@
       <c r="C80" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="15">
         <v>0.4</v>
       </c>
     </row>
@@ -31573,7 +31577,7 @@
       <c r="C81" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="15">
         <v>1.54</v>
       </c>
     </row>
@@ -31587,7 +31591,7 @@
       <c r="C82" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="15">
         <v>1.54</v>
       </c>
     </row>
@@ -31601,7 +31605,7 @@
       <c r="C83" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="15">
         <v>0.4</v>
       </c>
     </row>
@@ -31615,7 +31619,7 @@
       <c r="C84" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="15">
         <v>0.39</v>
       </c>
     </row>
@@ -31629,7 +31633,7 @@
       <c r="C85" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="15">
         <v>1.05</v>
       </c>
     </row>
@@ -31643,7 +31647,7 @@
       <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="15">
         <v>1.49</v>
       </c>
     </row>
@@ -31657,7 +31661,7 @@
       <c r="C87" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D87" s="15">
         <v>1.85</v>
       </c>
     </row>
@@ -31671,7 +31675,7 @@
       <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="15">
         <v>0.2</v>
       </c>
     </row>
@@ -31685,7 +31689,7 @@
       <c r="C89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="15">
         <v>1.3</v>
       </c>
     </row>
@@ -31699,7 +31703,7 @@
       <c r="C90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="15">
         <v>1.3</v>
       </c>
     </row>
@@ -31713,7 +31717,7 @@
       <c r="C91" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="15">
         <v>1.3</v>
       </c>
     </row>
@@ -31727,7 +31731,7 @@
       <c r="C92" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="15" t="s">
         <v>99</v>
       </c>
     </row>

--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bddae377a8f4f29/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F877C350-989F-43DE-8927-6F1FDD75CC03}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419075CC-94D9-4101-982D-8B6BAB44AD84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Production_Costs" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">order_units!$A$1:$D$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">order_units!$A$1:$D$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Production_Costs!$A$1:$A$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="105">
   <si>
     <t>HAPPY FACTORY</t>
   </si>
@@ -520,30 +520,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,22 +815,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -847,22 +847,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -971,22 +971,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1095,22 +1095,22 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1228,9 +1228,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1275,10 +1275,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1286,11 +1286,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1424,11 +1424,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1721,10 +1721,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2469,16 +2469,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2499,16 +2499,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2617,16 +2617,16 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2735,16 +2735,16 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2853,14 +2853,14 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2937,18 +2937,18 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3269,10 +3269,10 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4145,16 +4145,16 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="19"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4175,16 +4175,16 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="18"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="19"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4293,16 +4293,16 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="19"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4411,16 +4411,16 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="19"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4529,14 +4529,14 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="18"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="19"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -4613,10 +4613,10 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="18"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4959,10 +4959,10 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="18"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -29554,22 +29554,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29582,6 +29566,22 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -29593,11 +29593,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29622,806 +29622,302 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11">
+        <v>71</v>
+      </c>
+      <c r="C2" s="14">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="11">
         <v>143</v>
       </c>
-      <c r="C2" s="11">
-        <v>5</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="C3" s="14">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="11">
+        <v>215</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11">
         <v>299</v>
       </c>
-      <c r="C3" s="11">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="11">
+        <v>499</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="11">
+        <v>999</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="11">
+        <v>71</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="11">
+        <v>143</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="11">
+        <v>215</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="11">
+        <v>299</v>
+      </c>
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="11">
+        <v>499</v>
+      </c>
+      <c r="C13" s="14">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11">
-        <v>499</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="11">
         <v>999</v>
       </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C14" s="14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11">
         <v>5000</v>
       </c>
-      <c r="C6" s="11">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
-        <v>143</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="C15" s="14">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
-        <v>299</v>
-      </c>
-      <c r="C8" s="11">
-        <v>8</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
-        <v>499</v>
-      </c>
-      <c r="C9" s="11">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
-        <v>999</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
-        <v>143</v>
-      </c>
-      <c r="C12" s="11">
-        <v>12</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11">
-        <v>299</v>
-      </c>
-      <c r="C13" s="11">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
-        <v>499</v>
-      </c>
-      <c r="C14" s="11">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11">
-        <v>999</v>
-      </c>
-      <c r="C15" s="11">
-        <v>12</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="15">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B16" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C16" s="11">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1.4</v>
+        <v>71</v>
+      </c>
+      <c r="C16" s="14">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B17" s="11">
-        <v>71</v>
-      </c>
-      <c r="C17" s="11">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2.48</v>
+        <v>143</v>
+      </c>
+      <c r="C17" s="14">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2.23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B18" s="11">
-        <v>143</v>
-      </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1.87</v>
+        <v>215</v>
+      </c>
+      <c r="C18" s="14">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2.12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B19" s="11">
-        <v>215</v>
-      </c>
-      <c r="C19" s="11">
-        <v>4</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1.54</v>
+        <v>299</v>
+      </c>
+      <c r="C19" s="14">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.04</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B20" s="11">
-        <v>299</v>
-      </c>
-      <c r="C20" s="11">
-        <v>4</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1.38</v>
+        <v>499</v>
+      </c>
+      <c r="C20" s="14">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1.82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B21" s="11">
-        <v>499</v>
-      </c>
-      <c r="C21" s="11">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1.32</v>
+        <v>999</v>
+      </c>
+      <c r="C21" s="14">
+        <v>20</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1.38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B22" s="11">
-        <v>999</v>
-      </c>
-      <c r="C22" s="11">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1.21</v>
+        <v>5000</v>
+      </c>
+      <c r="C22" s="14">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1.32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="11">
-        <v>71</v>
-      </c>
-      <c r="C24" s="11">
-        <v>8</v>
-      </c>
-      <c r="D24" s="11">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="11">
-        <v>143</v>
-      </c>
-      <c r="C25" s="11">
-        <v>8</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="11">
-        <v>215</v>
-      </c>
-      <c r="C26" s="11">
-        <v>8</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="11">
-        <v>299</v>
-      </c>
-      <c r="C27" s="11">
-        <v>8</v>
-      </c>
-      <c r="D27" s="11">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="11">
-        <v>499</v>
-      </c>
-      <c r="C28" s="11">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="11">
-        <v>999</v>
-      </c>
-      <c r="C29" s="11">
-        <v>8</v>
-      </c>
-      <c r="D29" s="11">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C30" s="11">
-        <v>8</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="11">
-        <v>71</v>
-      </c>
-      <c r="C31" s="11">
-        <v>20</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="11">
-        <v>143</v>
-      </c>
-      <c r="C32" s="11">
-        <v>20</v>
-      </c>
-      <c r="D32" s="11">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="11">
-        <v>215</v>
-      </c>
-      <c r="C33" s="11">
-        <v>20</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="11">
-        <v>299</v>
-      </c>
-      <c r="C34" s="11">
-        <v>20</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="11">
-        <v>499</v>
-      </c>
-      <c r="C35" s="11">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="11">
-        <v>999</v>
-      </c>
-      <c r="C36" s="11">
-        <v>20</v>
-      </c>
-      <c r="D36" s="11">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C37" s="11">
-        <v>20</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="11">
-        <v>71</v>
-      </c>
-      <c r="C38" s="14">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="11">
-        <v>143</v>
-      </c>
-      <c r="C39" s="14">
-        <v>4</v>
-      </c>
-      <c r="D39" s="15">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="11">
-        <v>215</v>
-      </c>
-      <c r="C40" s="14">
-        <v>4</v>
-      </c>
-      <c r="D40" s="15">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="11">
-        <v>299</v>
-      </c>
-      <c r="C41" s="14">
-        <v>4</v>
-      </c>
-      <c r="D41" s="15">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="11">
-        <v>499</v>
-      </c>
-      <c r="C42" s="14">
-        <v>4</v>
-      </c>
-      <c r="D42" s="15">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="11">
-        <v>999</v>
-      </c>
-      <c r="C43" s="14">
-        <v>4</v>
-      </c>
-      <c r="D43" s="15">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C44" s="14">
-        <v>4</v>
-      </c>
-      <c r="D44" s="15">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="11">
-        <v>71</v>
-      </c>
-      <c r="C45" s="14">
-        <v>8</v>
-      </c>
-      <c r="D45" s="15">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="11">
-        <v>143</v>
-      </c>
-      <c r="C46" s="14">
-        <v>8</v>
-      </c>
-      <c r="D46" s="15">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="11">
-        <v>215</v>
-      </c>
-      <c r="C47" s="14">
-        <v>8</v>
-      </c>
-      <c r="D47" s="15">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="11">
-        <v>299</v>
-      </c>
-      <c r="C48" s="14">
-        <v>8</v>
-      </c>
-      <c r="D48" s="15">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="11">
-        <v>499</v>
-      </c>
-      <c r="C49" s="14">
-        <v>8</v>
-      </c>
-      <c r="D49" s="15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="11">
-        <v>999</v>
-      </c>
-      <c r="C50" s="14">
-        <v>8</v>
-      </c>
-      <c r="D50" s="15">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C51" s="14">
-        <v>8</v>
-      </c>
-      <c r="D51" s="15">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="11">
-        <v>71</v>
-      </c>
-      <c r="C52" s="14">
-        <v>20</v>
-      </c>
-      <c r="D52" s="15">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="11">
-        <v>143</v>
-      </c>
-      <c r="C53" s="14">
-        <v>20</v>
-      </c>
-      <c r="D53" s="15">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="11">
-        <v>215</v>
-      </c>
-      <c r="C54" s="14">
-        <v>20</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="11">
-        <v>299</v>
-      </c>
-      <c r="C55" s="14">
-        <v>20</v>
-      </c>
-      <c r="D55" s="15">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="11">
-        <v>499</v>
-      </c>
-      <c r="C56" s="14">
-        <v>20</v>
-      </c>
-      <c r="D56" s="15">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="11">
-        <v>999</v>
-      </c>
-      <c r="C57" s="14">
-        <v>20</v>
-      </c>
-      <c r="D57" s="15">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="11">
-        <v>5000</v>
-      </c>
-      <c r="C58" s="14">
-        <v>20</v>
-      </c>
-      <c r="D58" s="15">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="25"/>
+      <c r="D23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bddae377a8f4f29/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419075CC-94D9-4101-982D-8B6BAB44AD84}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7A315F-1BCA-4F31-BB5C-D9B230DAA88C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="106">
   <si>
     <t>HAPPY FACTORY</t>
   </si>
@@ -358,6 +358,9 @@
   <si>
     <t>type</t>
   </si>
+  <si>
+    <t>2025 Price Sheet</t>
+  </si>
 </sst>
 </file>
 
@@ -522,26 +525,26 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +829,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="18"/>
@@ -847,7 +850,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18"/>
@@ -858,7 +861,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="18"/>
@@ -971,7 +974,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="18"/>
@@ -982,7 +985,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="18"/>
@@ -1095,7 +1098,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="18"/>
@@ -1106,7 +1109,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="18"/>
@@ -1228,7 +1231,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="18"/>
       <c r="L12" s="19"/>
       <c r="M12" s="2"/>
@@ -2499,7 +2502,7 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="18"/>
@@ -2617,7 +2620,7 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="18"/>
@@ -2735,7 +2738,7 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="18"/>
@@ -2853,7 +2856,7 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -4175,7 +4178,7 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="18"/>
@@ -4293,7 +4296,7 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B106" s="18"/>
@@ -4411,7 +4414,7 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B109" s="18"/>
@@ -4529,7 +4532,7 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -29554,6 +29557,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29566,22 +29585,6 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -29595,7 +29598,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -29624,7 +29627,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B2" s="11">
         <v>71</v>
@@ -29638,7 +29641,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B3" s="11">
         <v>143</v>
@@ -29652,7 +29655,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B4" s="11">
         <v>215</v>
@@ -29666,7 +29669,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B5" s="11">
         <v>299</v>
@@ -29680,7 +29683,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B6" s="11">
         <v>499</v>
@@ -29694,7 +29697,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11">
         <v>999</v>
@@ -29708,7 +29711,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11">
         <v>5000</v>
@@ -29722,7 +29725,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B9" s="11">
         <v>71</v>
@@ -29736,7 +29739,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B10" s="11">
         <v>143</v>
@@ -29750,7 +29753,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B11" s="11">
         <v>215</v>
@@ -29764,7 +29767,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B12" s="11">
         <v>299</v>
@@ -29778,7 +29781,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B13" s="11">
         <v>499</v>
@@ -29792,7 +29795,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B14" s="11">
         <v>999</v>
@@ -29806,7 +29809,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B15" s="11">
         <v>5000</v>
@@ -29820,7 +29823,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B16" s="11">
         <v>71</v>
@@ -29834,7 +29837,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B17" s="11">
         <v>143</v>
@@ -29848,7 +29851,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B18" s="11">
         <v>215</v>
@@ -29862,7 +29865,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B19" s="11">
         <v>299</v>
@@ -29876,7 +29879,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B20" s="11">
         <v>499</v>
@@ -29890,7 +29893,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B21" s="11">
         <v>999</v>
@@ -29904,7 +29907,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B22" s="11">
         <v>5000</v>
@@ -29931,8 +29934,8 @@
   </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30225,7 +30228,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>102</v>
@@ -30239,7 +30242,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>102</v>
@@ -30253,7 +30256,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>102</v>
@@ -30267,7 +30270,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
@@ -30281,7 +30284,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
@@ -30295,7 +30298,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
@@ -30309,7 +30312,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>102</v>
@@ -30323,7 +30326,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
@@ -30337,7 +30340,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
         <v>102</v>
@@ -30911,7 +30914,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
         <v>103</v>
@@ -30925,7 +30928,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
         <v>103</v>
@@ -30939,7 +30942,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
@@ -30953,7 +30956,7 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
@@ -30967,7 +30970,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
         <v>103</v>
@@ -30981,7 +30984,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
         <v>103</v>
@@ -30995,7 +30998,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
         <v>103</v>
@@ -31009,7 +31012,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
         <v>103</v>
@@ -31023,7 +31026,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>103</v>
@@ -31037,7 +31040,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
         <v>103</v>
@@ -31051,7 +31054,7 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
         <v>103</v>
@@ -31065,7 +31068,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
         <v>103</v>
@@ -31079,7 +31082,7 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
         <v>103</v>
@@ -31093,7 +31096,7 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
         <v>103</v>
@@ -31107,7 +31110,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
         <v>103</v>
@@ -31121,7 +31124,7 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
         <v>103</v>
@@ -31135,7 +31138,7 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
         <v>103</v>
@@ -31149,7 +31152,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
         <v>103</v>
@@ -31163,7 +31166,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
@@ -31177,7 +31180,7 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
         <v>103</v>
@@ -31191,7 +31194,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
         <v>103</v>
@@ -31205,7 +31208,7 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
         <v>103</v>
@@ -31219,7 +31222,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>

--- a/VENDOR PRINT PRICING.xlsx
+++ b/VENDOR PRINT PRICING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bddae377a8f4f29/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C7A315F-1BCA-4F31-BB5C-D9B230DAA88C}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{22AA32CE-C6A3-41DC-9C3C-CFB74AECBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0038E0B4-BF9C-4BE9-AB16-2390048A6177}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">order_units!$A$1:$D$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Production_Costs!$A$1:$A$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Production_Costs!$A$1:$A$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="106">
   <si>
     <t>HAPPY FACTORY</t>
   </si>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,34 +517,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,22 +815,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -850,22 +847,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -974,22 +971,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1098,22 +1095,22 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1231,9 +1228,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1278,10 +1275,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1289,11 +1286,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1427,11 +1424,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1724,10 +1721,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2472,16 +2469,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2502,16 +2499,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2620,16 +2617,16 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2738,16 +2735,16 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2856,14 +2853,14 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2940,18 +2937,18 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3272,10 +3269,10 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4148,16 +4145,16 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="19"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4178,16 +4175,16 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="19"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4296,16 +4293,16 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="19"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4414,16 +4411,16 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="19"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4532,14 +4529,14 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="19"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -4616,10 +4613,10 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4962,10 +4959,10 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B126" s="19"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -29557,22 +29554,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A106:H106"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:H58"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J18:L18"/>
@@ -29585,6 +29566,22 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A106:H106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -29632,10 +29629,10 @@
       <c r="B2" s="11">
         <v>71</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>4</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.06</v>
       </c>
     </row>
@@ -29646,10 +29643,10 @@
       <c r="B3" s="11">
         <v>143</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.06</v>
       </c>
     </row>
@@ -29660,10 +29657,10 @@
       <c r="B4" s="11">
         <v>215</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1.64</v>
       </c>
     </row>
@@ -29674,10 +29671,10 @@
       <c r="B5" s="11">
         <v>299</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>1.58</v>
       </c>
     </row>
@@ -29688,10 +29685,10 @@
       <c r="B6" s="11">
         <v>499</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>1.42</v>
       </c>
     </row>
@@ -29702,10 +29699,10 @@
       <c r="B7" s="11">
         <v>999</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1.29</v>
       </c>
     </row>
@@ -29716,10 +29713,10 @@
       <c r="B8" s="11">
         <v>5000</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>1.1399999999999999</v>
       </c>
     </row>
@@ -29730,10 +29727,10 @@
       <c r="B9" s="11">
         <v>71</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>2.85</v>
       </c>
     </row>
@@ -29744,10 +29741,10 @@
       <c r="B10" s="11">
         <v>143</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>8</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>2.13</v>
       </c>
     </row>
@@ -29758,10 +29755,10 @@
       <c r="B11" s="11">
         <v>215</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>1.74</v>
       </c>
     </row>
@@ -29772,10 +29769,10 @@
       <c r="B12" s="11">
         <v>299</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>1.68</v>
       </c>
     </row>
@@ -29786,10 +29783,10 @@
       <c r="B13" s="11">
         <v>499</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>8</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>1.5</v>
       </c>
     </row>
@@ -29800,10 +29797,10 @@
       <c r="B14" s="11">
         <v>999</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>1.36</v>
       </c>
     </row>
@@ -29814,10 +29811,10 @@
       <c r="B15" s="11">
         <v>5000</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>8</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>1.27</v>
       </c>
     </row>
@@ -29828,10 +29825,10 @@
       <c r="B16" s="11">
         <v>71</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>20</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>3.03</v>
       </c>
     </row>
@@ -29842,10 +29839,10 @@
       <c r="B17" s="11">
         <v>143</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>20</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>2.23</v>
       </c>
     </row>
@@ -29856,10 +29853,10 @@
       <c r="B18" s="11">
         <v>215</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>20</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>2.12</v>
       </c>
     </row>
@@ -29870,10 +29867,10 @@
       <c r="B19" s="11">
         <v>299</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>20</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>2.04</v>
       </c>
     </row>
@@ -29884,10 +29881,10 @@
       <c r="B20" s="11">
         <v>499</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>20</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>1.82</v>
       </c>
     </row>
@@ -29898,10 +29895,10 @@
       <c r="B21" s="11">
         <v>999</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>20</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>1.38</v>
       </c>
     </row>
@@ -29912,15 +29909,15 @@
       <c r="B22" s="11">
         <v>5000</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>20</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>1.32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29932,10 +29929,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29960,270 +29957,270 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="13">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="13">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="13">
-        <v>28</v>
+        <v>91</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.61</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="13">
-        <v>55</v>
+        <v>103</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="13">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5.45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="13">
-        <v>16.5</v>
+        <v>103</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14">
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="13">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="13">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30231,13 +30228,13 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="15">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30245,13 +30242,13 @@
         <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="15">
-        <v>28</v>
+        <v>103</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1.54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30259,13 +30256,13 @@
         <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="15">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1.54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30273,13 +30270,13 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="15">
-        <v>28</v>
+        <v>103</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30287,13 +30284,13 @@
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="15">
-        <v>58</v>
+        <v>103</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30301,13 +30298,13 @@
         <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="15">
-        <v>45</v>
+        <v>103</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30315,13 +30312,13 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="15">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1.49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30329,13 +30326,13 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="15">
-        <v>45</v>
+        <v>103</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1.85</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -30343,899 +30340,73 @@
         <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0.4</v>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0.25</v>
+      <c r="C31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1.27</v>
+      <c r="C32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="13">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="13">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="13">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="C33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="13">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="13">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="13">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="13">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="13">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="13">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="13">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="13">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="13">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="13">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="13">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="15">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="15">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="15">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="15">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="15">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="15">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="15">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="15">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="15">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="15">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="15">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>105</v>
-      </c>
-      <c r="B85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="15">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="15">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="15">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="15">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="15">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="15">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A92" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:A33" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>